--- a/335Lab/Lab 3/rawData/rpm2500.xlsx
+++ b/335Lab/Lab 3/rawData/rpm2500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class Work\Current\ME335\335Lab\Lab 3\rawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9DE2D3-18ED-469F-BAE3-3084A023534D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97FF9BC-E062-41F5-AC7F-311E43C70BEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18915" yWindow="3285" windowWidth="15120" windowHeight="12210" xr2:uid="{A1EB32E3-C24A-46A4-9729-BC83FA088716}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{A1EB32E3-C24A-46A4-9729-BC83FA088716}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>TapPressure_H20</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>TapLocation_in</t>
+  </si>
+  <si>
+    <t>TapPressure_H20_stddev</t>
+  </si>
+  <si>
+    <t>FlowRate_GPM_stddev</t>
   </si>
 </sst>
 </file>
@@ -397,20 +403,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C19ECA-F57B-4F65-B755-1FC446513714}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -418,10 +426,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>-9.75</v>
       </c>
@@ -429,10 +443,16 @@
         <v>116.03</v>
       </c>
       <c r="C2" s="1">
+        <v>0.6026192827980198</v>
+      </c>
+      <c r="D2" s="1">
         <v>39.786000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>0.11238327277669095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>-7.75</v>
       </c>
@@ -440,10 +460,16 @@
         <v>116.25999999999999</v>
       </c>
       <c r="C3" s="1">
+        <v>0.66389005113799093</v>
+      </c>
+      <c r="D3" s="1">
         <v>39.772000000000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" s="1">
+        <v>5.4037024344424693E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>-3.5</v>
       </c>
@@ -451,10 +477,16 @@
         <v>116.652</v>
       </c>
       <c r="C4" s="1">
+        <v>0.80729176881719866</v>
+      </c>
+      <c r="D4" s="1">
         <v>39.863999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" s="1">
+        <v>6.0249481325569558E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>-1</v>
       </c>
@@ -462,10 +494,16 @@
         <v>116.304</v>
       </c>
       <c r="C5" s="1">
+        <v>0.66281973416608353</v>
+      </c>
+      <c r="D5" s="1">
         <v>39.742000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>5.9749476985158451E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -473,10 +511,16 @@
         <v>93.974000000000018</v>
       </c>
       <c r="C6" s="1">
+        <v>5.3743492629340732</v>
+      </c>
+      <c r="D6" s="1">
         <v>39.758000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>4.3243496620878674E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3.5</v>
       </c>
@@ -484,10 +528,16 @@
         <v>97.111999999999995</v>
       </c>
       <c r="C7" s="1">
+        <v>4.2501729376579469</v>
+      </c>
+      <c r="D7" s="1">
         <v>39.741999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>4.2071367935925842E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7.5</v>
       </c>
@@ -495,10 +545,16 @@
         <v>101.79600000000001</v>
       </c>
       <c r="C8" s="1">
+        <v>1.2570322191574885</v>
+      </c>
+      <c r="D8" s="1">
         <v>39.793999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>0.14310835055998794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>11.5</v>
       </c>
@@ -506,10 +562,16 @@
         <v>102.15600000000001</v>
       </c>
       <c r="C9" s="1">
+        <v>0.82090194298710573</v>
+      </c>
+      <c r="D9" s="1">
         <v>39.741999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>0.12557866060760406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>15.5</v>
       </c>
@@ -517,7 +579,13 @@
         <v>102.52000000000001</v>
       </c>
       <c r="C10" s="1">
+        <v>0.81452440110778523</v>
+      </c>
+      <c r="D10" s="1">
         <v>39.655999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7.8612976028133275E-2</v>
       </c>
     </row>
   </sheetData>
